--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8CFF1-4E11-4E62-9B0A-8472C70E2A07}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971EA711-631A-4B23-AACC-6E0612056ABC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -114,7 +114,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -125,28 +125,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -204,37 +207,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -562,7 +565,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,574 +576,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>43617</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43617</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>43617</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>43617</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>43618</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>43618</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>43621</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>43621</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>43622</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>43622</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>43624</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>150</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>43624</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>43625</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>450</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>43625</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>43626</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>40</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>43626</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>43629</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>600</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>43629</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>43632</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>500</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>43632</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>43633</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>43633</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>43636</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="4">
         <v>250</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>43636</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>43637</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="4">
         <v>40</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>43637</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>43640</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>750</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>43640</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>43641</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="4">
         <v>175</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>43641</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>43643</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="4">
         <v>600</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>43643</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>43645</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="4">
         <v>1600</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>43645</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>43646</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="4">
         <v>700</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>43646</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>43646</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>3750</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="6">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>1200</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="6">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>220</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="6">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>175</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="6">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>50</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="6">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>700</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="6">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="5">
+      <c r="C52" s="10"/>
+      <c r="D52" s="11">
         <v>250</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971EA711-631A-4B23-AACC-6E0612056ABC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E462A6-357C-47A1-B087-10B2E7259C68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Cash Dividends</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +133,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -205,41 +201,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,9 +233,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCAE8FF"/>
+      <color rgb="FFEFFAFD"/>
       <color rgb="FFDFF7FD"/>
-      <color rgb="FFEFFAFD"/>
-      <color rgb="FFCAE8FF"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
@@ -586,564 +571,564 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43617</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="2">
-        <v>43617</v>
-      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43617</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="2">
-        <v>43617</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>43618</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4">
+        <v>42888</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>150</v>
       </c>
-      <c r="D6" s="2">
-        <v>43618</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>43621</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4">
+        <v>42891</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" s="2">
-        <v>43621</v>
-      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>43622</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>250</v>
       </c>
-      <c r="D10" s="2">
-        <v>43622</v>
-      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>43624</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4">
+        <v>42894</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>150</v>
       </c>
-      <c r="D12" s="2">
-        <v>43624</v>
-      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>43625</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4">
+        <v>42895</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>450</v>
       </c>
-      <c r="D14" s="2">
-        <v>43625</v>
-      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3">
+        <v>450</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43626</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4">
+        <v>42896</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="2">
-        <v>43626</v>
-      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43629</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4">
+        <v>42899</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>600</v>
       </c>
-      <c r="D18" s="2">
-        <v>43629</v>
-      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43632</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>500</v>
       </c>
-      <c r="D20" s="2">
-        <v>43632</v>
-      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>43633</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="6">
+        <v>42903</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>30</v>
       </c>
-      <c r="D22" s="2">
-        <v>43633</v>
-      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>43636</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="4">
+        <v>42906</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>250</v>
       </c>
-      <c r="D24" s="2">
-        <v>43636</v>
-      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3">
+        <v>250</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>43637</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="4">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>40</v>
       </c>
-      <c r="D26" s="2">
-        <v>43637</v>
-      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>43640</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="4">
+        <v>42910</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>750</v>
       </c>
-      <c r="D28" s="2">
-        <v>43640</v>
-      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3">
+        <v>750</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43641</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="4">
+        <v>42911</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>175</v>
       </c>
-      <c r="D30" s="2">
-        <v>43641</v>
-      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3">
+        <v>175</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43643</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4">
+        <v>42913</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>600</v>
       </c>
-      <c r="D32" s="2">
-        <v>43643</v>
-      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43645</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="4">
+        <v>42915</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>1600</v>
       </c>
-      <c r="D34" s="2">
-        <v>43645</v>
-      </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3">
+        <v>1600</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>700</v>
       </c>
-      <c r="D36" s="2">
-        <v>43646</v>
-      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3">
+        <v>700</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <v>3750</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8">
+      <c r="C40" s="3"/>
+      <c r="D40" s="5">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="3">
         <v>1200</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8">
+      <c r="C42" s="3"/>
+      <c r="D42" s="5">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="3">
         <v>220</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8">
+      <c r="C44" s="3"/>
+      <c r="D44" s="5">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="3">
         <v>175</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8">
+      <c r="C46" s="3"/>
+      <c r="D46" s="5">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="5">
         <v>50</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8">
+      <c r="C48" s="3"/>
+      <c r="D48" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="5">
         <v>700</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8">
+      <c r="C50" s="3"/>
+      <c r="D50" s="5">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11">
+      <c r="C52" s="5"/>
+      <c r="D52" s="3">
         <v>250</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E462A6-357C-47A1-B087-10B2E7259C68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6DE03F-1321-4E84-9762-A251A4CB5433}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,22 +209,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,560 +574,560 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>42887</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>10000</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>42887</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>50</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>42888</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>150</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>42891</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>200</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>42892</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>250</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>42894</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>150</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>42895</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>450</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>42896</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>40</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>42899</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>600</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>42902</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>500</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>42903</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>42906</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>250</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>42907</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>40</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>42910</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>750</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3">
+      <c r="C29" s="6"/>
+      <c r="D29" s="5">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>42911</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>175</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3">
+      <c r="C31" s="6"/>
+      <c r="D31" s="5">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>42913</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>600</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3">
+      <c r="C33" s="6"/>
+      <c r="D33" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>42915</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>1600</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3">
+      <c r="C35" s="6"/>
+      <c r="D35" s="5">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>42916</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>700</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3">
+      <c r="C37" s="6"/>
+      <c r="D37" s="5">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>42916</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>3750</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>1200</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>220</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5">
+      <c r="C44" s="5"/>
+      <c r="D44" s="6">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>175</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5">
+      <c r="C46" s="5"/>
+      <c r="D46" s="6">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <v>50</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <v>700</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5">
+      <c r="C50" s="5"/>
+      <c r="D50" s="6">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="3">
+      <c r="C52" s="6"/>
+      <c r="D52" s="5">
         <v>250</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6DE03F-1321-4E84-9762-A251A4CB5433}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41056F-AC26-42E4-A76A-56D7D7F010E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,9 +115,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,13 +127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -143,6 +135,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,25 +203,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -560,24 +560,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -586,8 +586,8 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6"/>
@@ -596,10 +596,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="5">
@@ -608,8 +608,8 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
@@ -618,10 +618,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5">
@@ -630,8 +630,8 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6"/>
@@ -640,10 +640,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5">
@@ -652,8 +652,8 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="6"/>
@@ -662,10 +662,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5">
@@ -674,8 +674,8 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
@@ -684,10 +684,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5">
@@ -696,8 +696,8 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="6"/>
@@ -706,10 +706,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="5">
@@ -718,8 +718,8 @@
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="6"/>
@@ -728,10 +728,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5">
@@ -740,8 +740,8 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="6"/>
@@ -750,10 +750,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="5">
@@ -762,8 +762,8 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="6"/>
@@ -772,10 +772,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="5">
@@ -784,8 +784,8 @@
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="6"/>
@@ -794,10 +794,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>42903</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5">
@@ -806,8 +806,8 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="6"/>
@@ -816,10 +816,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="5">
@@ -828,8 +828,8 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6"/>
@@ -838,10 +838,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5">
@@ -850,8 +850,8 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="6"/>
@@ -860,10 +860,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="5">
@@ -872,8 +872,8 @@
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="6"/>
@@ -882,10 +882,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="5">
@@ -894,8 +894,8 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="6"/>
@@ -904,10 +904,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="5">
@@ -916,8 +916,8 @@
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="6"/>
@@ -926,10 +926,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="5">
@@ -938,8 +938,8 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6"/>
@@ -948,10 +948,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="5">
@@ -960,8 +960,8 @@
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="6"/>
@@ -970,16 +970,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="5">
@@ -988,10 +988,10 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="5"/>
@@ -1000,10 +1000,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="5">
@@ -1012,10 +1012,10 @@
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="5"/>
@@ -1024,10 +1024,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="5">
@@ -1036,10 +1036,10 @@
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="5"/>
@@ -1048,10 +1048,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="5">
@@ -1060,10 +1060,10 @@
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="5"/>
@@ -1072,10 +1072,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="6">
@@ -1084,8 +1084,8 @@
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="5"/>
@@ -1094,8 +1094,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="6">
@@ -1104,10 +1104,10 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="5"/>
@@ -1116,18 +1116,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5">
+      <c r="C51" s="6"/>
+      <c r="D51" s="5">
         <v>250</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41056F-AC26-42E4-A76A-56D7D7F010E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C5B67-21EC-42EE-95FC-5540F0ACFDE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -215,13 +215,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1115,17 +1115,8 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5">
-        <v>250</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C5B67-21EC-42EE-95FC-5540F0ACFDE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AC00B3-A90F-4487-82B5-665F04C170AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -203,15 +203,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +213,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +549,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,558 +560,558 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>42887</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>42887</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>42888</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>42891</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>200</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>42892</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>250</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>42894</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>42895</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>450</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>42896</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>40</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>42899</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>600</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>42902</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>500</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>42903</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>30</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>42906</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>250</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>42907</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>40</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>42910</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>750</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5">
+      <c r="C29" s="3"/>
+      <c r="D29" s="2">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>42911</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="2">
         <v>175</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>42913</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>600</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
         <v>42915</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>1600</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5">
+      <c r="C35" s="3"/>
+      <c r="D35" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
         <v>42916</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>700</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>42916</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="2">
         <v>3750</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="2">
         <v>1200</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6">
+      <c r="C42" s="2"/>
+      <c r="D42" s="3">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="2">
         <v>220</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6">
+      <c r="C44" s="2"/>
+      <c r="D44" s="3">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="2">
         <v>175</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6">
+      <c r="C46" s="2"/>
+      <c r="D46" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>50</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6">
+      <c r="C48" s="2"/>
+      <c r="D48" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>700</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6">
+      <c r="C50" s="2"/>
+      <c r="D50" s="3">
         <v>700</v>
       </c>
     </row>
